--- a/map_creator.xlsx
+++ b/map_creator.xlsx
@@ -1,55 +1,75 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="25x25" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="20x20" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="15x15" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="10x10" sheetId="4" r:id="rId7"/>
+    <sheet name="25x25" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="20x20" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="15x15" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="10x10" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="3">
   <si>
-    <t>O</t>
+    <t xml:space="preserve">O</t>
   </si>
   <si>
-    <t>F</t>
+    <t xml:space="preserve">F</t>
   </si>
   <si>
-    <t>S</t>
+    <t xml:space="preserve">S</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="&quot;Liberation Sans&quot;"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color theme="1"/>
+      <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <color theme="1"/>
-      <name val="Liberation Sans"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -57,303 +77,187 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="2">
-    <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <a:themeElements>
-    <a:clrScheme name="Sheets">
-      <a:dk1>
-        <a:srgbClr val="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="000000"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4285F4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="EA4335"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="FBBC04"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="34A853"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="FF6D01"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="46BDC6"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="1155CC"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="1155CC"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Sheets">
-      <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB10" activeCellId="0" sqref="AB10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.63"/>
-    <col customWidth="1" min="2" max="26" width="4.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="4.37"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.5" customHeight="1">
+    <row r="1" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -381,7 +285,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="21.75" customHeight="1">
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -411,15 +315,15 @@
         <v>0</v>
       </c>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="4" t="s">
+        <v>1</v>
+      </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
-      <c r="T2" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="T2" s="3"/>
       <c r="U2" s="2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="21.75" customHeight="1">
+    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -491,7 +395,7 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -551,7 +455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" ht="21.75" customHeight="1">
+    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -613,7 +517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="21.75" customHeight="1">
+    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>0</v>
@@ -649,7 +553,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="21.75" customHeight="1">
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -683,7 +587,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="21.75" customHeight="1">
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>1</v>
@@ -741,7 +645,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="21.75" customHeight="1">
+    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -797,7 +701,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="21.75" customHeight="1">
+    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -857,7 +761,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="21.75" customHeight="1">
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -899,7 +803,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="21.75" customHeight="1">
+    <row r="12" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
         <v>0</v>
@@ -937,7 +841,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="21.75" customHeight="1">
+    <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="3"/>
       <c r="C13" s="2" t="s">
@@ -989,7 +893,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="21.75" customHeight="1">
+    <row r="14" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
       <c r="C14" s="2" t="s">
@@ -1037,7 +941,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="21.75" customHeight="1">
+    <row r="15" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1073,7 +977,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="21.75" customHeight="1">
+    <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1107,7 +1011,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="21.75" customHeight="1">
+    <row r="17" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>0</v>
@@ -1145,7 +1049,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" ht="21.75" customHeight="1">
+    <row r="18" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
         <v>0</v>
@@ -1201,7 +1105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="21.75" customHeight="1">
+    <row r="19" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>0</v>
@@ -1261,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="21.75" customHeight="1">
+    <row r="20" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
         <v>0</v>
@@ -1305,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="21.75" customHeight="1">
+    <row r="21" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1359,7 +1263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="21.75" customHeight="1">
+    <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1391,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="21.75" customHeight="1">
+    <row r="23" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1443,7 +1347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="21.75" customHeight="1">
+    <row r="24" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
         <v>0</v>
@@ -1499,7 +1403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="21.75" customHeight="1">
+    <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1531,7 +1435,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="21.75" customHeight="1">
+    <row r="26" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1582,24 +1486,33 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:U21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W21" activeCellId="0" sqref="W21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="21" width="5.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="2" style="0" width="5.24"/>
   </cols>
   <sheetData>
-    <row r="2" ht="19.5" customHeight="1">
+    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1609,23 +1522,51 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" ht="19.5" customHeight="1">
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
       <c r="C3" s="2" t="s">
         <v>0</v>
@@ -1651,7 +1592,7 @@
       <c r="T3" s="3"/>
       <c r="U3" s="3"/>
     </row>
-    <row r="4" ht="19.5" customHeight="1">
+    <row r="4" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="2" t="s">
         <v>0</v>
@@ -1677,7 +1618,7 @@
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
     </row>
-    <row r="5" ht="19.5" customHeight="1">
+    <row r="5" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -1731,7 +1672,7 @@
       </c>
       <c r="U5" s="3"/>
     </row>
-    <row r="6" ht="19.5" customHeight="1">
+    <row r="6" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="2" t="s">
         <v>0</v>
@@ -1761,7 +1702,7 @@
       </c>
       <c r="U6" s="3"/>
     </row>
-    <row r="7" ht="19.5" customHeight="1">
+    <row r="7" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
       <c r="C7" s="2" t="s">
         <v>0</v>
@@ -1811,7 +1752,7 @@
       </c>
       <c r="U7" s="3"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
         <v>0</v>
@@ -1833,13 +1774,13 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="7"/>
+      <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" ht="19.5" customHeight="1">
+    <row r="9" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -1895,7 +1836,7 @@
       </c>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" ht="19.5" customHeight="1">
+    <row r="10" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -1923,7 +1864,7 @@
       </c>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" ht="19.5" customHeight="1">
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="2" t="s">
         <v>0</v>
       </c>
@@ -1973,7 +1914,7 @@
       </c>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
+    <row r="12" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -1997,7 +1938,7 @@
       </c>
       <c r="U12" s="3"/>
     </row>
-    <row r="13" ht="19.5" customHeight="1">
+    <row r="13" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -2039,7 +1980,7 @@
       </c>
       <c r="U13" s="3"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
+    <row r="14" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -2081,7 +2022,7 @@
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="4" t="s">
         <v>1</v>
       </c>
@@ -2117,7 +2058,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2149,7 +2090,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
       <c r="C17" s="2" t="s">
         <v>0</v>
@@ -2183,7 +2124,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
+    <row r="18" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
       <c r="C18" s="2" t="s">
         <v>0</v>
@@ -2198,10 +2139,18 @@
         <v>0</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="H18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="2" t="s">
         <v>0</v>
@@ -2219,17 +2168,27 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
+    <row r="19" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="H19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="2" t="s">
         <v>0</v>
@@ -2245,7 +2204,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
     </row>
-    <row r="20" ht="19.5" customHeight="1">
+    <row r="20" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="2" t="s">
         <v>0</v>
       </c>
@@ -2256,12 +2215,22 @@
         <v>0</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="H20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="2" t="s">
         <v>0</v>
@@ -2277,17 +2246,25 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" ht="19.5" customHeight="1">
+    <row r="21" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="H21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L21" s="3"/>
       <c r="M21" s="2" t="s">
         <v>0</v>
@@ -2314,43 +2291,72 @@
       <c r="U21" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M20" activeCellId="0" sqref="M20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="16" width="5.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="2" style="0" width="5.01"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2367,7 +2373,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" ht="20.25" customHeight="1">
+    <row r="4" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2399,7 +2405,7 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" ht="20.25" customHeight="1">
+    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2428,7 +2434,7 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" ht="20.25" customHeight="1">
+    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2440,7 +2446,9 @@
         <v>0</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -2449,7 +2457,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" ht="20.25" customHeight="1">
+    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="2" t="s">
         <v>0</v>
       </c>
@@ -2462,23 +2470,31 @@
       <c r="E7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+      <c r="M7" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" ht="20.25" customHeight="1">
+    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -2486,52 +2502,70 @@
       <c r="F8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" ht="20.25" customHeight="1">
-      <c r="B9" s="3"/>
+    <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="M9" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" ht="20.25" customHeight="1">
-      <c r="B10" s="3"/>
+    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="2" t="s">
         <v>0</v>
@@ -2539,26 +2573,38 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+      <c r="M10" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" ht="20.25" customHeight="1">
-      <c r="B11" s="3"/>
+    <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L11" s="2" t="s">
         <v>0</v>
       </c>
@@ -2573,17 +2619,25 @@
       </c>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" ht="20.25" customHeight="1">
-      <c r="B12" s="3"/>
+    <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -2592,34 +2646,44 @@
       </c>
       <c r="P12" s="3"/>
     </row>
-    <row r="13" ht="20.25" customHeight="1">
+    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N13" s="3"/>
       <c r="O13" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P13" s="3"/>
     </row>
-    <row r="14" ht="20.25" customHeight="1">
+    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="2" t="s">
         <v>0</v>
@@ -2634,40 +2698,44 @@
         <v>0</v>
       </c>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="L14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="N14" s="3"/>
       <c r="O14" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P14" s="3"/>
     </row>
-    <row r="15" ht="20.25" customHeight="1">
+    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="2" t="s">
         <v>0</v>
       </c>
       <c r="P15" s="3"/>
     </row>
-    <row r="16" ht="20.25" customHeight="1">
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
         <v>2</v>
       </c>
@@ -2680,10 +2748,10 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="L16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="2" t="s">
         <v>0</v>
       </c>
@@ -2695,44 +2763,45 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="B2:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="2" max="11" width="4.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="4.5"/>
   </cols>
   <sheetData>
-    <row r="2" ht="21.75" customHeight="1">
+    <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="21.75" customHeight="1">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -2744,108 +2813,70 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" ht="21.75" customHeight="1">
+    <row r="4" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" ht="21.75" customHeight="1">
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" ht="21.75" customHeight="1">
-      <c r="B6" s="5" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" ht="21.75" customHeight="1">
-      <c r="B7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="21.75" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>1</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="4"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" ht="21.75" customHeight="1">
+    <row r="9" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -2854,27 +2885,19 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" ht="21.75" customHeight="1">
+    <row r="10" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" ht="21.75" customHeight="1">
+    <row r="11" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2887,6 +2910,12 @@
       <c r="K11" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>